--- a/Blik/mandatenNVWA.xlsx
+++ b/Blik/mandatenNVWA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="15975" windowHeight="6855"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="15975" windowHeight="6795" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Functie" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="Taken" sheetId="9" r:id="rId7"/>
     <sheet name="Typologie" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="524">
   <si>
     <t>Beperking</t>
   </si>
@@ -2040,7 +2040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2075,6 +2075,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2379,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
@@ -5598,7 +5599,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,11 +6763,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6774,79 +6773,117 @@
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>237</v>
       </c>
       <c r="B1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>248</v>
       </c>
       <c r="B3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="14" t="str">
+        <f>"http://wetten.overheid.nl/jci1.3:c:"&amp;A3</f>
+        <v>http://wetten.overheid.nl/jci1.3:c:BWBR0007923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="str">
+        <f t="shared" ref="C4:C9" si="0">"http://wetten.overheid.nl/jci1.3:c:"&amp;A4</f>
+        <v>http://wetten.overheid.nl/jci1.3:c:BWBR0019229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>245</v>
       </c>
       <c r="B5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/jci1.3:c:BWBR0036080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>246</v>
       </c>
       <c r="B6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/jci1.3:c:BWBR0036129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/jci1.3:c:BWBR0032262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
       <c r="B8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/jci1.3:c:BWBR0017176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
       <c r="B9" t="s">
         <v>242</v>
       </c>
+      <c r="C9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>http://wetten.overheid.nl/jci1.3:c:BWBR0017341</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="http://wetten.overheid.nl/jci1.3:c:&quot;&amp;"/>
+    <hyperlink ref="C4:C9" r:id="rId2" display="http://wetten.overheid.nl/jci1.3:c:&quot;&amp;"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Blik/mandatenNVWA.xlsx
+++ b/Blik/mandatenNVWA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="15975" windowHeight="6795" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="15810" windowHeight="6795" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Functie" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="556">
   <si>
     <t>Beperking</t>
   </si>
@@ -180,54 +180,6 @@
   </si>
   <si>
     <t>art. 1 lid d Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a</t>
-  </si>
-  <si>
-    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub o</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub b</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub c</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub d</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub e</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub f</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub g</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub h</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub i</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub j</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub k</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub l</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub m</t>
-  </si>
-  <si>
-    <t>Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub n</t>
   </si>
   <si>
     <t>het werken aan de veiligheid van voedsel- en niet-voedsel producten om de gezondheid van mens en dier te beschermen;</t>
@@ -968,6 +920,9 @@
     <t>lid</t>
   </si>
   <si>
+    <t>bijlage</t>
+  </si>
+  <si>
     <t>sub</t>
   </si>
   <si>
@@ -975,6 +930,9 @@
   </si>
   <si>
     <t>Lid</t>
+  </si>
+  <si>
+    <t>Bijlage</t>
   </si>
   <si>
     <t>Sub</t>
@@ -1942,6 +1900,144 @@
   </si>
   <si>
     <t>b68</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> b</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> d</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> e</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> f</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=h</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> h</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=i</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> i</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=j</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> j</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=k</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> k</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=l</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> m</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=n</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n</t>
+  </si>
+  <si>
+    <t>http://wetten.overheid.nl/jci1.3:c:BWBR0036080/&amp;Bijlage=XVII&amp;Art=2&amp;sub=o</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> o</t>
+  </si>
+  <si>
+    <t>XVII</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>t4</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>t7</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>t9</t>
+  </si>
+  <si>
+    <t>t10</t>
+  </si>
+  <si>
+    <t>t11</t>
+  </si>
+  <si>
+    <t>t12</t>
+  </si>
+  <si>
+    <t>t13</t>
+  </si>
+  <si>
+    <t>t14</t>
+  </si>
+  <si>
+    <t>t15</t>
   </si>
 </sst>
 </file>
@@ -2400,13 +2496,13 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G1" t="s">
         <v>40</v>
@@ -2429,13 +2525,13 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
         <v>31</v>
@@ -2443,16 +2539,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2460,50 +2556,50 @@
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F4" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F5" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -2523,7 +2619,7 @@
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
         <v>39</v>
@@ -2548,10 +2644,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -2560,10 +2656,10 @@
         <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2571,10 +2667,10 @@
         <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -2583,10 +2679,10 @@
         <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2672,10 +2768,10 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C14" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -2684,10 +2780,10 @@
         <v>42</v>
       </c>
       <c r="G14" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2718,7 +2814,7 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
         <v>28</v>
@@ -2744,7 +2840,7 @@
     </row>
     <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -2770,7 +2866,7 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -2796,36 +2892,36 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C19" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="G19" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H19" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C20" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -2833,13 +2929,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C21" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -2847,13 +2943,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C22" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="D22" t="s">
         <v>23</v>
@@ -2861,13 +2957,13 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -2875,13 +2971,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2889,13 +2985,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C25" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D25" t="s">
         <v>23</v>
@@ -2975,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>2</v>
@@ -2984,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>31</v>
@@ -2992,7 +3088,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>50</v>
@@ -3007,19 +3103,19 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>50</v>
@@ -3034,19 +3130,19 @@
         <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="9" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>50</v>
@@ -3061,19 +3157,19 @@
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="9" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>50</v>
@@ -3088,19 +3184,19 @@
         <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="9" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>50</v>
@@ -3115,19 +3211,19 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>50</v>
@@ -3142,19 +3238,19 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>50</v>
@@ -3169,19 +3265,19 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="9" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>50</v>
@@ -3196,18 +3292,18 @@
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
@@ -3222,19 +3318,19 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>50</v>
@@ -3249,19 +3345,19 @@
         <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>50</v>
@@ -3276,19 +3372,19 @@
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="9" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>50</v>
@@ -3303,19 +3399,19 @@
         <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="9" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>50</v>
@@ -3330,19 +3426,19 @@
         <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="9" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>50</v>
@@ -3357,19 +3453,19 @@
         <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="9" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>50</v>
@@ -3384,19 +3480,19 @@
         <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="9" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>50</v>
@@ -3411,19 +3507,19 @@
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>50</v>
@@ -3438,19 +3534,19 @@
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>50</v>
@@ -3465,19 +3561,19 @@
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>50</v>
@@ -3492,19 +3588,19 @@
         <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>50</v>
@@ -3519,19 +3615,19 @@
         <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>50</v>
@@ -3546,19 +3642,19 @@
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>50</v>
@@ -3573,19 +3669,19 @@
         <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>50</v>
@@ -3600,19 +3696,19 @@
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>50</v>
@@ -3627,19 +3723,19 @@
         <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>50</v>
@@ -3654,19 +3750,19 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>50</v>
@@ -3681,19 +3777,19 @@
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>50</v>
@@ -3708,19 +3804,19 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="9" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>50</v>
@@ -3735,18 +3831,18 @@
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>50</v>
@@ -3761,19 +3857,19 @@
         <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="9" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>50</v>
@@ -3788,98 +3884,98 @@
         <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="9" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="9" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>50</v>
@@ -3891,18 +3987,18 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>50</v>
@@ -3911,24 +4007,24 @@
         <v>42</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F37" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>50</v>
@@ -3937,24 +4033,24 @@
         <v>42</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F38" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>50</v>
@@ -3963,24 +4059,24 @@
         <v>42</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F39" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>50</v>
@@ -3989,24 +4085,24 @@
         <v>42</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F40" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>50</v>
@@ -4015,24 +4111,24 @@
         <v>42</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>50</v>
@@ -4041,24 +4137,24 @@
         <v>42</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F42" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>50</v>
@@ -4067,24 +4163,24 @@
         <v>42</v>
       </c>
       <c r="E43" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="H43" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F43" t="s">
-        <v>496</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="I43" s="12" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>50</v>
@@ -4093,24 +4189,24 @@
         <v>42</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F44" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>50</v>
@@ -4119,24 +4215,24 @@
         <v>42</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>50</v>
@@ -4145,24 +4241,24 @@
         <v>42</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F46" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>50</v>
@@ -4171,24 +4267,24 @@
         <v>42</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>50</v>
@@ -4197,24 +4293,24 @@
         <v>42</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>50</v>
@@ -4223,24 +4319,24 @@
         <v>42</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F49" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>50</v>
@@ -4249,24 +4345,24 @@
         <v>42</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F50" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>50</v>
@@ -4275,24 +4371,24 @@
         <v>42</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F51" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>50</v>
@@ -4301,24 +4397,24 @@
         <v>42</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F52" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>50</v>
@@ -4327,24 +4423,24 @@
         <v>42</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F53" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>50</v>
@@ -4353,24 +4449,24 @@
         <v>42</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>50</v>
@@ -4379,24 +4475,24 @@
         <v>42</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>50</v>
@@ -4405,24 +4501,24 @@
         <v>42</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F56" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>50</v>
@@ -4431,24 +4527,24 @@
         <v>42</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F57" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>50</v>
@@ -4457,24 +4553,24 @@
         <v>42</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F58" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>50</v>
@@ -4483,24 +4579,24 @@
         <v>42</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F59" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>50</v>
@@ -4509,24 +4605,24 @@
         <v>42</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F60" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>50</v>
@@ -4535,24 +4631,24 @@
         <v>42</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F61" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>50</v>
@@ -4561,24 +4657,24 @@
         <v>42</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F62" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>50</v>
@@ -4587,22 +4683,22 @@
         <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F63" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="9" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>50</v>
@@ -4611,24 +4707,24 @@
         <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F64" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>50</v>
@@ -4637,24 +4733,24 @@
         <v>42</v>
       </c>
       <c r="E65" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F65" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>50</v>
@@ -4663,24 +4759,24 @@
         <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F66" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>50</v>
@@ -4689,24 +4785,24 @@
         <v>42</v>
       </c>
       <c r="E67" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F67" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>50</v>
@@ -4715,24 +4811,24 @@
         <v>42</v>
       </c>
       <c r="E68" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F68" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>50</v>
@@ -4741,17 +4837,17 @@
         <v>42</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F69" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="9" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4806,10 +4902,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>40</v>
@@ -4823,13 +4919,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>31</v>
@@ -4837,10 +4933,10 @@
     </row>
     <row r="3" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -4848,10 +4944,10 @@
     </row>
     <row r="4" spans="1:5" ht="168" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -4859,10 +4955,10 @@
     </row>
     <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -4870,10 +4966,10 @@
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4881,10 +4977,10 @@
     </row>
     <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -4892,10 +4988,10 @@
     </row>
     <row r="8" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4903,10 +4999,10 @@
     </row>
     <row r="9" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4914,10 +5010,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -4925,10 +5021,10 @@
     </row>
     <row r="11" spans="1:5" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4936,10 +5032,10 @@
     </row>
     <row r="12" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -4947,10 +5043,10 @@
     </row>
     <row r="13" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4958,10 +5054,10 @@
     </row>
     <row r="14" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4969,10 +5065,10 @@
     </row>
     <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4980,10 +5076,10 @@
     </row>
     <row r="16" spans="1:5" ht="171" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -4991,10 +5087,10 @@
     </row>
     <row r="17" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -5002,10 +5098,10 @@
     </row>
     <row r="18" spans="1:5" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -5013,10 +5109,10 @@
     </row>
     <row r="19" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -5024,10 +5120,10 @@
     </row>
     <row r="20" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -5035,10 +5131,10 @@
     </row>
     <row r="21" spans="1:5" ht="171" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -5046,10 +5142,10 @@
     </row>
     <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -5057,10 +5153,10 @@
     </row>
     <row r="23" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -5068,10 +5164,10 @@
     </row>
     <row r="24" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -5079,10 +5175,10 @@
     </row>
     <row r="25" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -5090,10 +5186,10 @@
     </row>
     <row r="26" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -5101,10 +5197,10 @@
     </row>
     <row r="27" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -5112,10 +5208,10 @@
     </row>
     <row r="28" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5123,10 +5219,10 @@
     </row>
     <row r="29" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5134,10 +5230,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -5145,10 +5241,10 @@
     </row>
     <row r="31" spans="1:5" ht="126" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -5156,10 +5252,10 @@
     </row>
     <row r="32" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -5167,10 +5263,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -5178,10 +5274,10 @@
     </row>
     <row r="34" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -5189,10 +5285,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -5200,10 +5296,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -5211,10 +5307,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -5222,10 +5318,10 @@
     </row>
     <row r="38" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -5233,10 +5329,10 @@
     </row>
     <row r="39" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -5244,10 +5340,10 @@
     </row>
     <row r="40" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -5255,10 +5351,10 @@
     </row>
     <row r="41" spans="1:5" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -5266,10 +5362,10 @@
     </row>
     <row r="42" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -5277,10 +5373,10 @@
     </row>
     <row r="43" spans="1:5" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -5288,10 +5384,10 @@
     </row>
     <row r="44" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -5299,10 +5395,10 @@
     </row>
     <row r="45" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -5310,10 +5406,10 @@
     </row>
     <row r="46" spans="1:5" ht="228" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -5321,10 +5417,10 @@
     </row>
     <row r="47" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -5332,10 +5428,10 @@
     </row>
     <row r="48" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -5343,10 +5439,10 @@
     </row>
     <row r="49" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -5354,10 +5450,10 @@
     </row>
     <row r="50" spans="1:5" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -5365,10 +5461,10 @@
     </row>
     <row r="51" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -5376,10 +5472,10 @@
     </row>
     <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -5387,10 +5483,10 @@
     </row>
     <row r="53" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -5398,10 +5494,10 @@
     </row>
     <row r="54" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -5409,10 +5505,10 @@
     </row>
     <row r="55" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -5420,10 +5516,10 @@
     </row>
     <row r="56" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -5431,10 +5527,10 @@
     </row>
     <row r="57" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -5442,10 +5538,10 @@
     </row>
     <row r="58" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -5453,10 +5549,10 @@
     </row>
     <row r="59" spans="1:5" ht="57" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -5464,10 +5560,10 @@
     </row>
     <row r="60" spans="1:5" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -5475,10 +5571,10 @@
     </row>
     <row r="61" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -5486,10 +5582,10 @@
     </row>
     <row r="62" spans="1:5" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
@@ -5497,10 +5593,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -5508,10 +5604,10 @@
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -5519,10 +5615,10 @@
     </row>
     <row r="65" spans="1:5" ht="42" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -5530,10 +5626,10 @@
     </row>
     <row r="66" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -5541,10 +5637,10 @@
     </row>
     <row r="67" spans="1:5" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -5552,10 +5648,10 @@
     </row>
     <row r="68" spans="1:5" ht="73.5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -5563,10 +5659,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -5574,19 +5670,19 @@
     </row>
     <row r="70" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5598,8 +5694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5609,50 +5705,50 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -5661,18 +5757,18 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -5681,18 +5777,18 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -5701,18 +5797,18 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -5721,18 +5817,18 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -5741,18 +5837,18 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -5761,18 +5857,18 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -5781,18 +5877,18 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -5801,18 +5897,18 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -5821,18 +5917,18 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -5841,18 +5937,18 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -5861,18 +5957,18 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -5881,18 +5977,18 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -5901,18 +5997,18 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -5921,18 +6017,18 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -5941,15 +6037,15 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -5958,15 +6054,15 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -5975,15 +6071,15 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -5992,15 +6088,15 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -6009,15 +6105,15 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -6026,15 +6122,15 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -6043,29 +6139,29 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -6074,26 +6170,26 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -6102,18 +6198,18 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -6122,18 +6218,18 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B29" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -6142,18 +6238,18 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -6162,18 +6258,18 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -6182,18 +6278,18 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F31" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -6202,18 +6298,18 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -6222,18 +6318,18 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -6242,18 +6338,18 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F34" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -6262,18 +6358,18 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -6282,18 +6378,18 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -6302,18 +6398,18 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -6322,18 +6418,18 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B39" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -6342,18 +6438,18 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="F39" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="B40" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -6362,18 +6458,18 @@
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -6382,18 +6478,18 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F41" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -6402,18 +6498,18 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="F42" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -6422,18 +6518,18 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -6442,18 +6538,18 @@
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="F44" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -6462,18 +6558,18 @@
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -6482,18 +6578,18 @@
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -6502,18 +6598,18 @@
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -6522,18 +6618,18 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -6542,18 +6638,18 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B50" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -6562,18 +6658,18 @@
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F50" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B51" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6582,52 +6678,52 @@
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F51" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="F52" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B54" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -6636,18 +6732,18 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B55" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6656,18 +6752,18 @@
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F55" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B56" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6676,18 +6772,18 @@
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6696,18 +6792,18 @@
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B58" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6716,18 +6812,18 @@
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6736,21 +6832,21 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="C60">
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6765,7 +6861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6775,32 +6871,32 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C3" s="14" t="str">
         <f>"http://wetten.overheid.nl/jci1.3:c:"&amp;A3</f>
@@ -6809,10 +6905,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C4" s="14" t="str">
         <f t="shared" ref="C4:C9" si="0">"http://wetten.overheid.nl/jci1.3:c:"&amp;A4</f>
@@ -6821,10 +6917,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C5" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6833,10 +6929,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C6" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6845,10 +6941,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C7" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6857,10 +6953,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C8" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6869,10 +6965,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C9" s="14" t="str">
         <f t="shared" si="0"/>
@@ -6919,10 +7015,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6930,229 +7026,395 @@
     <col min="2" max="2" width="95.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="E1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>541</v>
+      </c>
       <c r="B3" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>512</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>513</v>
+      </c>
+      <c r="G4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>517</v>
+      </c>
+      <c r="G6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>521</v>
+      </c>
+      <c r="G8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>523</v>
+      </c>
+      <c r="G9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>525</v>
+      </c>
+      <c r="G10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>527</v>
+      </c>
+      <c r="G11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>550</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>529</v>
+      </c>
+      <c r="G12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>531</v>
+      </c>
+      <c r="G13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C14" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>533</v>
+      </c>
+      <c r="G14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>535</v>
+      </c>
+      <c r="G15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>537</v>
+      </c>
+      <c r="G16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>54</v>
+        <v>538</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>55</v>
+        <v>540</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>539</v>
+      </c>
+      <c r="G17" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D5" r:id="rId4" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D6" r:id="rId5" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D7" r:id="rId6" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D8" r:id="rId7" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D9" r:id="rId8" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D10" r:id="rId9" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D11" r:id="rId10" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D12" r:id="rId11" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D13" r:id="rId12" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D14" r:id="rId13" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D15" r:id="rId14" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D16" r:id="rId15" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="D17" r:id="rId16" display="Besluit mandaat, volmacht en machtiging EZ 2015, Bijlage XVII, lid 2, sub a"/>
-    <hyperlink ref="C4" r:id="rId17"/>
-    <hyperlink ref="C5" r:id="rId18"/>
-    <hyperlink ref="C6" r:id="rId19"/>
-    <hyperlink ref="C7" r:id="rId20"/>
-    <hyperlink ref="C8" r:id="rId21"/>
-    <hyperlink ref="C9" r:id="rId22"/>
-    <hyperlink ref="C10" r:id="rId23"/>
-    <hyperlink ref="C11" r:id="rId24"/>
-    <hyperlink ref="C12" r:id="rId25"/>
-    <hyperlink ref="C13" r:id="rId26"/>
-    <hyperlink ref="C14" r:id="rId27"/>
-    <hyperlink ref="C15" r:id="rId28"/>
-    <hyperlink ref="C16" r:id="rId29"/>
-    <hyperlink ref="C17" r:id="rId30"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
